--- a/bin/Debug/net8.0/Priklad-zakazky_do_JSON.xlsx
+++ b/bin/Debug/net8.0/Priklad-zakazky_do_JSON.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">Klient</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">SE0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdsfds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FED</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -746,8 +752,26 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
